--- a/feature_scaling.xlsx
+++ b/feature_scaling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\sklearn-kopra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Latihan-Data-Science\kopra-introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02BE2BB-0BCA-4EFE-AD02-E8990C813A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8254C6-1A57-4792-9C01-2C051DE7CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5D40AB96-9BC3-4E5A-A6C6-C6D5A72D1BD5}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BF56CB-E848-4840-8E4D-4201E545EC51}">
   <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:P137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
